--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T16:11:38-05:00</t>
+    <t>2024-01-14T20:25:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:15:59-05:00</t>
+    <t>2024-01-15T21:38:02-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20178" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20503" uniqueCount="1565">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:38:02-05:00</t>
+    <t>2024-01-17T11:35:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4856,10 +4856,40 @@
     <t>http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/symptom</t>
   </si>
   <si>
-    <t>Symptom</t>
-  </si>
-  <si>
     <t xml:space="preserve">Symptoms present in Traveler </t>
+  </si>
+  <si>
+    <t>Extension.extension:symptom</t>
+  </si>
+  <si>
+    <t>Extension.extension:symptom.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:symptom.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:symptom.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:symptom.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:symptom-onset-date</t>
+  </si>
+  <si>
+    <t>symptom-onset-date</t>
+  </si>
+  <si>
+    <t>Extension.extension:symptom-onset-date.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:symptom-onset-date.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:symptom-onset-date.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:symptom-onset-date.value[x]</t>
   </si>
   <si>
     <t>transfer-date</t>
@@ -7098,7 +7128,7 @@
         <v>8</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>1549</v>
+        <v>680</v>
       </c>
     </row>
     <row r="273">
@@ -7152,7 +7182,7 @@
         <v>19</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="280">
@@ -7236,7 +7266,7 @@
         <v>2</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>1551</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="291">
@@ -7244,7 +7274,7 @@
         <v>4</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>1552</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="292">
@@ -7260,7 +7290,7 @@
         <v>8</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>1553</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="294">
@@ -7268,7 +7298,7 @@
         <v>9</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>1554</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="295">
@@ -7392,7 +7422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK596"/>
+  <dimension ref="A1:AK606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -68839,7 +68869,7 @@
         <v>680</v>
       </c>
       <c r="N587" t="s" s="2">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="O587" s="2"/>
       <c r="P587" s="2"/>
@@ -69020,14 +69050,14 @@
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="F589" s="2"/>
       <c r="G589" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H589" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I589" t="s" s="2">
         <v>74</v>
@@ -69042,12 +69072,14 @@
         <v>124</v>
       </c>
       <c r="M589" t="s" s="2">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="N589" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="O589" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="O589" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P589" s="2"/>
       <c r="Q589" t="s" s="2">
         <v>74</v>
@@ -69116,18 +69148,20 @@
         <v>1547</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1462</v>
+        <v>1550</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1462</v>
-      </c>
-      <c r="D590" s="2"/>
+        <v>1461</v>
+      </c>
+      <c r="D590" t="s" s="2">
+        <v>1547</v>
+      </c>
       <c r="E590" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F590" s="2"/>
       <c r="G590" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H590" t="s" s="2">
         <v>81</v>
@@ -69142,24 +69176,22 @@
         <v>74</v>
       </c>
       <c r="L590" t="s" s="2">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="M590" t="s" s="2">
-        <v>1463</v>
+        <v>125</v>
       </c>
       <c r="N590" t="s" s="2">
-        <v>1464</v>
-      </c>
-      <c r="O590" t="s" s="2">
-        <v>1465</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O590" s="2"/>
       <c r="P590" s="2"/>
       <c r="Q590" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R590" s="2"/>
       <c r="S590" t="s" s="2">
-        <v>1548</v>
+        <v>74</v>
       </c>
       <c r="T590" t="s" s="2">
         <v>74</v>
@@ -69201,19 +69233,19 @@
         <v>74</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1462</v>
+        <v>294</v>
       </c>
       <c r="AH590" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AI590" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ590" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK590" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="591">
@@ -69221,10 +69253,10 @@
         <v>1547</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1466</v>
+        <v>1551</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1466</v>
+        <v>1482</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -69247,13 +69279,13 @@
         <v>74</v>
       </c>
       <c r="L591" t="s" s="2">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="M591" t="s" s="2">
-        <v>1468</v>
+        <v>288</v>
       </c>
       <c r="N591" t="s" s="2">
-        <v>1469</v>
+        <v>289</v>
       </c>
       <c r="O591" s="2"/>
       <c r="P591" s="2"/>
@@ -69280,11 +69312,13 @@
         <v>74</v>
       </c>
       <c r="Y591" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Z591" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Z591" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AA591" t="s" s="2">
-        <v>789</v>
+        <v>74</v>
       </c>
       <c r="AB591" t="s" s="2">
         <v>74</v>
@@ -69302,7 +69336,7 @@
         <v>74</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1466</v>
+        <v>290</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>72</v>
@@ -69314,18 +69348,18 @@
         <v>74</v>
       </c>
       <c r="AK591" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>125</v>
+        <v>1552</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>125</v>
+        <v>1484</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -69336,7 +69370,7 @@
         <v>72</v>
       </c>
       <c r="H592" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I592" t="s" s="2">
         <v>74</v>
@@ -69348,13 +69382,13 @@
         <v>74</v>
       </c>
       <c r="L592" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="M592" t="s" s="2">
-        <v>1554</v>
+        <v>125</v>
       </c>
       <c r="N592" t="s" s="2">
-        <v>842</v>
+        <v>126</v>
       </c>
       <c r="O592" s="2"/>
       <c r="P592" s="2"/>
@@ -69393,19 +69427,19 @@
         <v>74</v>
       </c>
       <c r="AC592" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="AD592" t="s" s="2">
-        <v>74</v>
+        <v>1124</v>
       </c>
       <c r="AE592" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF592" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>72</v>
@@ -69414,7 +69448,7 @@
         <v>73</v>
       </c>
       <c r="AJ592" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AK592" t="s" s="2">
         <v>130</v>
@@ -69422,13 +69456,13 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>1460</v>
+        <v>1553</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>1460</v>
+        <v>1486</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" t="s" s="2">
@@ -69436,7 +69470,7 @@
       </c>
       <c r="F593" s="2"/>
       <c r="G593" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H593" t="s" s="2">
         <v>81</v>
@@ -69451,22 +69485,24 @@
         <v>74</v>
       </c>
       <c r="L593" t="s" s="2">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="M593" t="s" s="2">
-        <v>288</v>
+        <v>1463</v>
       </c>
       <c r="N593" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O593" s="2"/>
+        <v>1464</v>
+      </c>
+      <c r="O593" t="s" s="2">
+        <v>1465</v>
+      </c>
       <c r="P593" s="2"/>
       <c r="Q593" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R593" s="2"/>
       <c r="S593" t="s" s="2">
-        <v>74</v>
+        <v>1547</v>
       </c>
       <c r="T593" t="s" s="2">
         <v>74</v>
@@ -69508,10 +69544,10 @@
         <v>74</v>
       </c>
       <c r="AG593" t="s" s="2">
-        <v>290</v>
+        <v>1462</v>
       </c>
       <c r="AH593" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI593" t="s" s="2">
         <v>81</v>
@@ -69525,13 +69561,13 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>1461</v>
+        <v>1554</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>1461</v>
+        <v>1488</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -69542,7 +69578,7 @@
         <v>72</v>
       </c>
       <c r="H594" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I594" t="s" s="2">
         <v>74</v>
@@ -69554,13 +69590,13 @@
         <v>74</v>
       </c>
       <c r="L594" t="s" s="2">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="M594" t="s" s="2">
-        <v>125</v>
+        <v>1468</v>
       </c>
       <c r="N594" t="s" s="2">
-        <v>126</v>
+        <v>1469</v>
       </c>
       <c r="O594" s="2"/>
       <c r="P594" s="2"/>
@@ -69587,62 +69623,62 @@
         <v>74</v>
       </c>
       <c r="Y594" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z594" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="Z594" s="2"/>
       <c r="AA594" t="s" s="2">
-        <v>74</v>
+        <v>789</v>
       </c>
       <c r="AB594" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AC594" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="AD594" t="s" s="2">
-        <v>1124</v>
+        <v>74</v>
       </c>
       <c r="AE594" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AF594" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="AG594" t="s" s="2">
-        <v>294</v>
+        <v>1466</v>
       </c>
       <c r="AH594" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI594" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ594" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK594" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>1462</v>
+        <v>1555</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>1462</v>
-      </c>
-      <c r="D595" s="2"/>
+        <v>1461</v>
+      </c>
+      <c r="D595" t="s" s="2">
+        <v>1556</v>
+      </c>
       <c r="E595" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F595" s="2"/>
       <c r="G595" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H595" t="s" s="2">
         <v>81</v>
@@ -69657,24 +69693,22 @@
         <v>74</v>
       </c>
       <c r="L595" t="s" s="2">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="M595" t="s" s="2">
-        <v>1463</v>
+        <v>125</v>
       </c>
       <c r="N595" t="s" s="2">
-        <v>1464</v>
-      </c>
-      <c r="O595" t="s" s="2">
-        <v>1465</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O595" s="2"/>
       <c r="P595" s="2"/>
       <c r="Q595" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R595" s="2"/>
       <c r="S595" t="s" s="2">
-        <v>1552</v>
+        <v>74</v>
       </c>
       <c r="T595" t="s" s="2">
         <v>74</v>
@@ -69716,30 +69750,30 @@
         <v>74</v>
       </c>
       <c r="AG595" t="s" s="2">
-        <v>1462</v>
+        <v>294</v>
       </c>
       <c r="AH595" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AI595" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AJ595" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK595" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>1466</v>
+        <v>1557</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>1466</v>
+        <v>1482</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -69753,7 +69787,7 @@
         <v>81</v>
       </c>
       <c r="I596" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J596" t="s" s="2">
         <v>74</v>
@@ -69762,13 +69796,13 @@
         <v>74</v>
       </c>
       <c r="L596" t="s" s="2">
-        <v>1264</v>
+        <v>287</v>
       </c>
       <c r="M596" t="s" s="2">
-        <v>1468</v>
+        <v>288</v>
       </c>
       <c r="N596" t="s" s="2">
-        <v>1469</v>
+        <v>289</v>
       </c>
       <c r="O596" s="2"/>
       <c r="P596" s="2"/>
@@ -69819,18 +69853,1054 @@
         <v>74</v>
       </c>
       <c r="AG596" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH596" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI596" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ596" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK596" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B597" t="s" s="2">
+        <v>1558</v>
+      </c>
+      <c r="C597" t="s" s="2">
+        <v>1484</v>
+      </c>
+      <c r="D597" s="2"/>
+      <c r="E597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F597" s="2"/>
+      <c r="G597" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H597" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L597" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M597" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N597" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O597" s="2"/>
+      <c r="P597" s="2"/>
+      <c r="Q597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R597" s="2"/>
+      <c r="S597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC597" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AD597" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="AE597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF597" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG597" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AH597" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI597" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ597" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK597" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B598" t="s" s="2">
+        <v>1559</v>
+      </c>
+      <c r="C598" t="s" s="2">
+        <v>1486</v>
+      </c>
+      <c r="D598" s="2"/>
+      <c r="E598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F598" s="2"/>
+      <c r="G598" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H598" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L598" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M598" t="s" s="2">
+        <v>1463</v>
+      </c>
+      <c r="N598" t="s" s="2">
+        <v>1464</v>
+      </c>
+      <c r="O598" t="s" s="2">
+        <v>1465</v>
+      </c>
+      <c r="P598" s="2"/>
+      <c r="Q598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R598" s="2"/>
+      <c r="S598" t="s" s="2">
+        <v>1556</v>
+      </c>
+      <c r="T598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG598" t="s" s="2">
+        <v>1462</v>
+      </c>
+      <c r="AH598" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI598" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ598" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK598" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B599" t="s" s="2">
+        <v>1560</v>
+      </c>
+      <c r="C599" t="s" s="2">
+        <v>1488</v>
+      </c>
+      <c r="D599" s="2"/>
+      <c r="E599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F599" s="2"/>
+      <c r="G599" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H599" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L599" t="s" s="2">
+        <v>1264</v>
+      </c>
+      <c r="M599" t="s" s="2">
+        <v>1468</v>
+      </c>
+      <c r="N599" t="s" s="2">
+        <v>1469</v>
+      </c>
+      <c r="O599" s="2"/>
+      <c r="P599" s="2"/>
+      <c r="Q599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R599" s="2"/>
+      <c r="S599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG599" t="s" s="2">
         <v>1466</v>
       </c>
-      <c r="AH596" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI596" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ596" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK596" t="s" s="2">
+      <c r="AH599" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI599" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK599" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B600" t="s" s="2">
+        <v>1462</v>
+      </c>
+      <c r="C600" t="s" s="2">
+        <v>1462</v>
+      </c>
+      <c r="D600" s="2"/>
+      <c r="E600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F600" s="2"/>
+      <c r="G600" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H600" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L600" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M600" t="s" s="2">
+        <v>1463</v>
+      </c>
+      <c r="N600" t="s" s="2">
+        <v>1464</v>
+      </c>
+      <c r="O600" t="s" s="2">
+        <v>1465</v>
+      </c>
+      <c r="P600" s="2"/>
+      <c r="Q600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R600" s="2"/>
+      <c r="S600" t="s" s="2">
+        <v>1548</v>
+      </c>
+      <c r="T600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG600" t="s" s="2">
+        <v>1462</v>
+      </c>
+      <c r="AH600" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI600" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ600" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK600" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B601" t="s" s="2">
+        <v>1466</v>
+      </c>
+      <c r="C601" t="s" s="2">
+        <v>1466</v>
+      </c>
+      <c r="D601" s="2"/>
+      <c r="E601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F601" s="2"/>
+      <c r="G601" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H601" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L601" t="s" s="2">
+        <v>1532</v>
+      </c>
+      <c r="M601" t="s" s="2">
+        <v>1468</v>
+      </c>
+      <c r="N601" t="s" s="2">
+        <v>1469</v>
+      </c>
+      <c r="O601" s="2"/>
+      <c r="P601" s="2"/>
+      <c r="Q601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R601" s="2"/>
+      <c r="S601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG601" t="s" s="2">
+        <v>1466</v>
+      </c>
+      <c r="AH601" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI601" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK601" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="2">
+        <v>1561</v>
+      </c>
+      <c r="B602" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C602" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D602" s="2"/>
+      <c r="E602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F602" s="2"/>
+      <c r="G602" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H602" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L602" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M602" t="s" s="2">
+        <v>1564</v>
+      </c>
+      <c r="N602" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="O602" s="2"/>
+      <c r="P602" s="2"/>
+      <c r="Q602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R602" s="2"/>
+      <c r="S602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF602" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG602" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AH602" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI602" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ602" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK602" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="2">
+        <v>1561</v>
+      </c>
+      <c r="B603" t="s" s="2">
+        <v>1460</v>
+      </c>
+      <c r="C603" t="s" s="2">
+        <v>1460</v>
+      </c>
+      <c r="D603" s="2"/>
+      <c r="E603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F603" s="2"/>
+      <c r="G603" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H603" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L603" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M603" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N603" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O603" s="2"/>
+      <c r="P603" s="2"/>
+      <c r="Q603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R603" s="2"/>
+      <c r="S603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG603" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH603" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI603" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK603" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="2">
+        <v>1561</v>
+      </c>
+      <c r="B604" t="s" s="2">
+        <v>1461</v>
+      </c>
+      <c r="C604" t="s" s="2">
+        <v>1461</v>
+      </c>
+      <c r="D604" s="2"/>
+      <c r="E604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F604" s="2"/>
+      <c r="G604" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H604" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L604" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M604" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N604" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O604" s="2"/>
+      <c r="P604" s="2"/>
+      <c r="Q604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R604" s="2"/>
+      <c r="S604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC604" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AD604" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="AE604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF604" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG604" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AH604" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI604" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ604" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK604" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="2">
+        <v>1561</v>
+      </c>
+      <c r="B605" t="s" s="2">
+        <v>1462</v>
+      </c>
+      <c r="C605" t="s" s="2">
+        <v>1462</v>
+      </c>
+      <c r="D605" s="2"/>
+      <c r="E605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F605" s="2"/>
+      <c r="G605" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H605" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L605" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M605" t="s" s="2">
+        <v>1463</v>
+      </c>
+      <c r="N605" t="s" s="2">
+        <v>1464</v>
+      </c>
+      <c r="O605" t="s" s="2">
+        <v>1465</v>
+      </c>
+      <c r="P605" s="2"/>
+      <c r="Q605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R605" s="2"/>
+      <c r="S605" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="T605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG605" t="s" s="2">
+        <v>1462</v>
+      </c>
+      <c r="AH605" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI605" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ605" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK605" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="2">
+        <v>1561</v>
+      </c>
+      <c r="B606" t="s" s="2">
+        <v>1466</v>
+      </c>
+      <c r="C606" t="s" s="2">
+        <v>1466</v>
+      </c>
+      <c r="D606" s="2"/>
+      <c r="E606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F606" s="2"/>
+      <c r="G606" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H606" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I606" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L606" t="s" s="2">
+        <v>1264</v>
+      </c>
+      <c r="M606" t="s" s="2">
+        <v>1468</v>
+      </c>
+      <c r="N606" t="s" s="2">
+        <v>1469</v>
+      </c>
+      <c r="O606" s="2"/>
+      <c r="P606" s="2"/>
+      <c r="Q606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R606" s="2"/>
+      <c r="S606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG606" t="s" s="2">
+        <v>1466</v>
+      </c>
+      <c r="AH606" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI606" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ606" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK606" t="s" s="2">
         <v>93</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T11:35:10-05:00</t>
+    <t>2024-02-16T13:20:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
